--- a/data/trans_bre/IP16A03-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A03-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,43</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>119,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-54,2%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,27 +668,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 14,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 5,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 4,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-60,29; 998,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-8,43</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,62</t>
+          <t>-3,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-75,89%</t>
+          <t>119,06%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>174,5%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-75,47%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-31,17%</t>
+          <t>-54,2%</t>
         </is>
       </c>
     </row>
@@ -868,27 +868,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 1,35</t>
+          <t>-2,31; 14,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 10,44</t>
+          <t>-3,49; 5,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 0,24</t>
+          <t>-11,9; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 7,27</t>
+          <t>-7,84; 4,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 161,45</t>
+          <t>-60,29; 998,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,11</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,34%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>110,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,77%</t>
         </is>
       </c>
     </row>
@@ -968,32 +968,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,86; 4,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,4; 17,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,67; 9,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,32; 4,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 399,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,89; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,11</t>
+          <t>-8,43</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,83</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>-6,62</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-51,34%</t>
+          <t>-75,89%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>110,34%</t>
+          <t>174,5%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>-75,47%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>30,77%</t>
+          <t>-31,17%</t>
         </is>
       </c>
     </row>
@@ -1068,32 +1068,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 4,58</t>
+          <t>-19,42; 1,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 17,36</t>
+          <t>-2,34; 10,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 9,45</t>
+          <t>-17,73; 0,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 4,92</t>
+          <t>-7,55; 7,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 399,46</t>
+          <t>-100,0; 161,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-62,89; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">

--- a/data/trans_bre/IP16A03-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A03-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 9,71</t>
+          <t>-12,08; 9,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,57; -2,16</t>
+          <t>-23,48; -2,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,63; 0,0</t>
+          <t>-16,89; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,43; 0,0</t>
+          <t>-22,23; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -868,27 +868,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 14,88</t>
+          <t>-2,16; 14,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 5,52</t>
+          <t>-3,39; 5,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 0,0</t>
+          <t>-12,9; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 4,42</t>
+          <t>-8,14; 3,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-60,29; 998,77</t>
+          <t>-52,4; 1082,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -968,32 +968,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 4,58</t>
+          <t>-14,37; 3,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 17,36</t>
+          <t>-3,32; 17,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 9,45</t>
+          <t>-10,06; 11,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 4,92</t>
+          <t>-4,65; 4,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 399,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-62,89; —</t>
+          <t>-53,46; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1068,27 +1068,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 1,35</t>
+          <t>-20,05; 0,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 10,44</t>
+          <t>-2,09; 10,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 0,24</t>
+          <t>-18,12; 0,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 7,27</t>
+          <t>-7,62; 6,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 161,45</t>
+          <t>-100,0; 177,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 3,48</t>
+          <t>-6,02; 3,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 4,16</t>
+          <t>-2,94; 4,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,58; -0,13</t>
+          <t>-7,33; 0,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 1,3</t>
+          <t>-4,6; 1,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-63,51; 80,24</t>
+          <t>-61,38; 68,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-59,61; 200,84</t>
+          <t>-56,19; 199,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-93,5; 26,01</t>
+          <t>-92,03; 33,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-86,81; 120,21</t>
+          <t>-90,68; 94,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A03-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A03-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 9,5</t>
+          <t>-12,28; 11,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,48; -2,16</t>
+          <t>-23,62; -2,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,89; 0,0</t>
+          <t>-17,71; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,23; 0,0</t>
+          <t>-20,36; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,27 +868,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 14,91</t>
+          <t>-2,69; 14,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 5,64</t>
+          <t>-3,4; 7,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 0,0</t>
+          <t>-10,64; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 3,82</t>
+          <t>-7,58; 4,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-52,4; 1082,02</t>
+          <t>-54,42; 999,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 3,94</t>
+          <t>-13,95; 4,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 17,17</t>
+          <t>-3,24; 17,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 11,35</t>
+          <t>-9,4; 10,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 4,29</t>
+          <t>-4,26; 4,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-53,46; —</t>
+          <t>-60,77; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1068,27 +1068,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-20,05; 0,16</t>
+          <t>-18,39; 1,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 10,63</t>
+          <t>-3,72; 10,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,12; 0,29</t>
+          <t>-17,21; 1,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 6,17</t>
+          <t>-9,01; 6,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 177,08</t>
+          <t>-100,0; 234,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 3,34</t>
+          <t>-6,37; 3,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 4,32</t>
+          <t>-2,99; 4,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 0,3</t>
+          <t>-7,47; 0,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 1,26</t>
+          <t>-4,34; 1,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-61,38; 68,83</t>
+          <t>-64,77; 64,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-56,19; 199,4</t>
+          <t>-60,37; 237,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-92,03; 33,29</t>
+          <t>-92,91; 39,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-90,68; 94,27</t>
+          <t>-88,76; 105,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A03-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A03-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,33; 6,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,48; -2,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,61; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,62; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-8,2</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>-3,43</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,27</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-1,32%</t>
+          <t>119,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>8,7%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-52,38%</t>
         </is>
       </c>
     </row>
@@ -768,27 +768,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 11,51</t>
+          <t>-2,31; 14,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,62; -2,13</t>
+          <t>-3,49; 5,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 0,0</t>
+          <t>-11,9; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,36; 0,0</t>
+          <t>-7,67; 4,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,29; 998,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>-4,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,43</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>119,06%</t>
+          <t>-51,34%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>110,34%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-54,2%</t>
+          <t>1,03%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 14,96</t>
+          <t>-13,86; 4,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 7,27</t>
+          <t>-4,4; 17,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 0,0</t>
+          <t>-9,67; 9,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 4,34</t>
+          <t>-4,81; 4,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-54,42; 999,85</t>
+          <t>-100,0; 399,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
+          <t>-62,89; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,11</t>
+          <t>-8,43</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,83</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>-6,62</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-51,34%</t>
+          <t>-75,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>110,34%</t>
+          <t>174,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>-75,47%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,77%</t>
+          <t>-31,9%</t>
         </is>
       </c>
     </row>
@@ -968,32 +968,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 4,07</t>
+          <t>-19,42; 1,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 17,58</t>
+          <t>-2,34; 10,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,4; 10,41</t>
+          <t>-17,73; 0,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 4,69</t>
+          <t>-7,4; 7,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 161,45</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-60,77; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-8,43</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,62</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-75,89%</t>
+          <t>-20,15%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>174,5%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-75,47%</t>
+          <t>-62,93%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-31,17%</t>
+          <t>-51,17%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,39; 1,16</t>
+          <t>-6,47; 3,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 10,18</t>
+          <t>-3,38; 4,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,21; 1,86</t>
+          <t>-7,58; -0,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 6,12</t>
+          <t>-4,95; 1,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 234,58</t>
+          <t>-63,51; 80,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,61; 200,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,5; 26,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,6; 82,78</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-1,47</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-3,17</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-1,48</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-20,15%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>16,05%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-62,93%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-44,77%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-6,37; 3,06</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,99; 4,21</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-7,47; 0,04</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-4,34; 1,55</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-64,77; 64,64</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-60,37; 237,17</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-92,91; 39,07</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-88,76; 105,96</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
